--- a/application_framework/application_framework/nablarch/images/images.xlsx
+++ b/application_framework/application_framework/nablarch/images/images.xlsx
@@ -78,6 +78,110 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="右矢印 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="15573375"/>
+          <a:ext cx="1504950" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="右矢印 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2847974" y="16392525"/>
+          <a:ext cx="1495426" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -3264,6 +3368,378 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
             <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="15411450"/>
+          <a:ext cx="390525" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Nablarch</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="15611475"/>
+          <a:ext cx="885825" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>空文字列</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="15582900"/>
+          <a:ext cx="885825" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="角丸四角形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="16421100"/>
+          <a:ext cx="885825" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="角丸四角形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="16344899"/>
+          <a:ext cx="885825" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>空文字列</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="角丸四角形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14782800"/>
+          <a:ext cx="1485900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>を表現できないデータ形式の入出力</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3561,7 +4037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="AB88" sqref="AB88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/application_framework/application_framework/nablarch/images/images.xlsx
+++ b/application_framework/application_framework/nablarch/images/images.xlsx
@@ -78,110 +78,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="右矢印 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2876550" y="15573375"/>
-          <a:ext cx="1504950" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="右矢印 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2847974" y="16392525"/>
-          <a:ext cx="1495426" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -3368,378 +3264,6 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
             <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="角丸四角形 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3448050" y="15411450"/>
-          <a:ext cx="390525" cy="1543050"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Nablarch</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="15611475"/>
-          <a:ext cx="885825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>空文字列</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="角丸四角形 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="15582900"/>
-          <a:ext cx="885825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="角丸四角形 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="16421100"/>
-          <a:ext cx="885825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="角丸四角形 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="16344899"/>
-          <a:ext cx="885825" cy="542926"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>空文字列</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="角丸四角形 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="14782800"/>
-          <a:ext cx="1485900" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>を表現できないデータ形式の入出力</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4037,9 +3561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AB88" sqref="AB88"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
